--- a/data/Subset1_WithDialogActs/What is one half 3_grade 4.xlsx_with_dialog_acts.xlsx
+++ b/data/Subset1_WithDialogActs/What is one half 3_grade 4.xlsx_with_dialog_acts.xlsx
@@ -1801,12 +1801,12 @@
       <c r="H36" t="inlineStr"/>
       <c r="I36" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -1953,12 +1953,12 @@
       <c r="H40" t="inlineStr"/>
       <c r="I40" t="inlineStr">
         <is>
-          <t>ba</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>Appreciation</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -2523,12 +2523,12 @@
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -2697,12 +2697,12 @@
       <c r="H60" t="inlineStr"/>
       <c r="I60" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -3919,12 +3919,12 @@
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J92" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -4337,12 +4337,12 @@
       <c r="H103" t="inlineStr"/>
       <c r="I103" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J103" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -4755,12 +4755,12 @@
       </c>
       <c r="I114" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J114" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
